--- a/电路基础/实验/电路实验二正弦稳态.xlsx
+++ b/电路基础/实验/电路实验二正弦稳态.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\heu-icicles\电路基础\实验\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9586018-8AB8-41EA-9CC2-6E95B510AF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E9CF58-427C-41BC-AFE2-0F4D5780F6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -952,6 +952,18 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -974,18 +986,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5200,8 +5200,8 @@
   </sheetPr>
   <dimension ref="B1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5214,16 +5214,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70"/>
-      <c r="W1" s="67" t="s">
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="62"/>
+      <c r="W1" s="59" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5241,7 +5241,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-      <c r="W2" s="67" t="s">
+      <c r="W2" s="59" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5311,8 +5311,8 @@
         <f>2*PI()*B4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="50" t="e">
-        <f>H15</f>
+      <c r="H4" s="52" t="e">
+        <f t="shared" ref="H4:H11" si="0">ABS(F4-G4)/G4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K4" s="9"/>
@@ -5328,19 +5328,19 @@
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
       <c r="E5" s="51">
-        <f t="shared" ref="E5:E11" si="0">C5/$L$3*1000</f>
+        <f t="shared" ref="E5:E11" si="1">C5/$L$3*1000</f>
         <v>0</v>
       </c>
       <c r="F5" s="51" t="e">
-        <f t="shared" ref="F5:F11" si="1">D5/E5*1000</f>
+        <f t="shared" ref="F5:F11" si="2">D5/E5*1000</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G5" s="51">
-        <f t="shared" ref="G5:G11" si="2">2*PI()*B5</f>
+        <f t="shared" ref="G5:G11" si="3">2*PI()*B5</f>
         <v>0</v>
       </c>
       <c r="H5" s="52" t="e">
-        <f t="shared" ref="H5:H11" si="3">ABS(F5-G5)/G5</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K5" s="2"/>
@@ -5363,60 +5363,60 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="51" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="52" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="51" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G6" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="52" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" s="61"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
       <c r="O6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
       <c r="R6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
       <c r="U6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="64"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="68"/>
     </row>
     <row r="7" spans="2:24" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="32"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="51" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="52" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="51" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="52" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -5444,19 +5444,19 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="51" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="52" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="51" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="52" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K8" s="23" t="s">
@@ -5481,19 +5481,19 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="51" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="52" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="51" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="52" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K9" s="24" t="s">
@@ -5557,19 +5557,19 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="51" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="52" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="51" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="52" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K10" s="9"/>
@@ -5592,19 +5592,19 @@
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
       <c r="E11" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="53" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="54" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="53" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="53">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="54" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O11" s="19"/>
@@ -5761,11 +5761,11 @@
       <c r="P16" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="Q16" s="59">
+      <c r="Q16" s="63">
         <f>ABS(Q14-M15)/Q14</f>
         <v>1</v>
       </c>
-      <c r="R16" s="60"/>
+      <c r="R16" s="64"/>
       <c r="T16" s="57">
         <v>0</v>
       </c>
@@ -5843,11 +5843,11 @@
       <c r="P18" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="Q18" s="65">
+      <c r="Q18" s="69">
         <f>1/L3*SQRT(P3*1000/T3)</f>
         <v>4.4721359549995796</v>
       </c>
-      <c r="R18" s="66"/>
+      <c r="R18" s="70"/>
       <c r="T18" s="57">
         <v>0</v>
       </c>
@@ -5937,11 +5937,11 @@
       <c r="P20" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="Q20" s="59">
+      <c r="Q20" s="63">
         <f>ABS(Q18-M20)/Q18</f>
         <v>1</v>
       </c>
-      <c r="R20" s="60"/>
+      <c r="R20" s="64"/>
       <c r="T20" s="57">
         <v>0</v>
       </c>
@@ -6087,14 +6087,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q18:R18"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="S6:T6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q18:R18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
